--- a/500all/speech_level/speeches_CHRG-114hhrg93973.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93973.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="299">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412526</t>
   </si>
   <si>
-    <t>Ron DeSantis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. DeSantis. The subcommittee will come to order.    Without objection, the chair is authorized to declare a recess at any time.    We are a government of, by, and for the American people. This means that the American people can, through their elected representatives, set whatever policies, including immigration policy, they see fit. The law can allow for unlimited immigration, limited immigration, or even zero immigration. But when the Government fails to enforce whatever laws happen to be on the books, it undermines our ability to govern ourselves.    Likewise, when the President issued his executive edict granting five million work permits and Social Security numbers for individuals illegally present in our Country, which, by the way, will also make these individuals eligible for taxpayer finance welfare payments, he harmed the American people's ability to govern themselves. After all, the American people never voted for such a policy. Indeed, the stinging rebuke delivered to the President's party in November, if anything, provided evidence that the public rejected what the President had long been threatening to do.    Under the President's policy, U.S. workers will face a $3,000 hiring disadvantage due to the Affordable Care Act. The American people had no say in enacting such a policy. Legal immigrants will see the hefty application fees they must pay to be diverted to administer the President's unconstitutional program, which will make these legal immigrants wait longer. The American people never approved such unfairness.    Taxpayers will be on the hook to pay, as Commissioner John Koskinen said just yesterday, retroactive tax credit payments to people who were working in our Country illegally for years. The American taxpayer was never given a voice about this.    So the President's policy undermines our basic ability to govern ourselves. And the reason we are having this hearing today is to showcase an even more significant, perhaps, ramification of what the President has done, a ramification that could undermine the integrity of our elections.    Through the President's executive actions, millions of non-citizens will be able to obtain valid Social Security numbers and State driver's licenses. Under Federal law, any person with a valid Social Security number or driver's license can register to vote as long as he attests to his eligibility to do so. Therefore, the President's executive actions dramatically increase the risk that non-citizens may illegally register to vote.    Now, the problem of non-citizens voting already exists. Some experts have found that thousands of non-citizens may be registered to vote in some States, and perhaps as many as tens of thousands nationwide. A study that was released last year found that some non-citizens do participate in U.S. elections and that this participation has already had a meaningful effect in election outcomes, including electoral college votes and congressional elections.    The President's executive actions make this problem of non-citizen voting worse without offering any solutions or assistance to the States. Non-citizen voting undermines voter confidence and damages the integrity of Federal elections. And make no mistake, as an elected official, I don't want my vote totals diminished because of a non-citizen to vote, but I also don't want them to be enhanced, either. I want the actual voice of the American people to carry the day.    Today we will hear from secretaries of State, officials tasked with the responsibility of administering elections in their States. They will testify how the President's executive actions will affect their voter registration rolls and their elections in their States. In fact, one of our witnesses today, Ohio Secretary of State Jon Husted, wrote to President Obama about this very issue. He requested his Administration to ``work with us to minimize the impact on the integrity of our elections and to ensure only eligible voters participate in State and Federal elections.''    We will also hear from an expert on voter fraud and voting rights laws issues to help us understand the consequences of the President's executive actions.    Today's hearing is about upholding the integrity of our elections and ensuring that every American's vote counts.    This is the first hearing that we have had on the Subcommittee on National Security, but it is a joint hearing with my friend, Jim Jordan. But I did want to recognize the ranking member on our National Security Subcommittee, Stephen Lynch, from the frozen tundra of Boston.    I am happy to work with you, Stephen, although I am jealous. Coming from Boston, you guys four Super Bowls in the last 15 years, three World Series. We don't get that much love in Florida.    With that, I will recognize the ranking member for 5 minutes.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Lynch</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lynch. Well, I appreciate the congratulations and the condolences for the weather.    Mr. Chairman, I want to thank you and I also want to thank our panel of witnesses that have come forward to help the committee with its work.    While I do share President Obama's frustration with the inability of Congress to produce a balanced and sustainable immigration policy, I do have some lingering concerns about the precedence set by the President's executive actions on immigration, especially when it comes to other major issues that a future Congress may struggle to address. That is why I continue to welcome the opportunity as a direct representative of my constituents to consider and debate our Nation's immigration policy on its merits.    Regrettably, the looming February 27 deadline to avoid a shutdown of the entire Department of Homeland Security demonstrates that some Members of Congress have chosen a more drastic route in response to the President's executive action. In particular, Republican leadership is attempting, I think, to condition our Nation's continued anti-terrorism, border enforcement, and cybersecurity funding on reversing the President's immigration orders. And I am not sure, but to is a partial Government shutdown and furloughing of approximately 30,000 dedicated Homeland Security employees an appropriate response to the President's executive orders? I am not so sure that it is.    Similarly, today's hearing now attempts to tie the debate over the President's executive action to a different and unrelated issue, I think, the misguided, at times, premise that the President's immigration orders pose a threat of voter fraud by non-citizens who will somehow hijack the election process and thereby threaten our national security.    The rights of citizens in this Country to vote is one of the most basic tenets of who we are as a people and is a cornerstone of our democratic system that must be protected. However, the threat we are here to discuss today is virtually nonexistent if you look at the legal and electoral evidence.    Non-citizen voter fraud is not, in fact, an active or present threat to our national security. None of the President's executive actions on immigration launch voter fraud into the realm of a clear and present danger or national security concern.    The truth is the President's actions leave State and Federal voting requirements untouched. I want to repeat that. The President's actions leave State and Federal voting requirements untouched. They do not change Federal elections law and they leave State elections laws unaltered.    Nevertheless, it appears that we are here today to discuss voter fraud, especially by non-citizens present in the Country.    I understand some of our witnesses have expressed concerns to the contrary; however, it simply does not seem plausible that immigrants who apply for deferred action will then choose to ignore Federal and State laws prominently displayed on voter registration forms and then fraudulently attest to being a U.S. citizen just so they can illegally register to vote.    When you look at the penalties that would be on an individual in that case, that might have received a deferred status and is allowed to come to the Country, that they would risk all of that to vote in an election where only 30 or 40 percent of our own citizens, without penalty, choose to vote in those elections, it just strains the realm of credibility.    Further, this argument presumes that these people will then fraudulently vote en masse in order to affect the outcomes of elections in swing States, even though this means that under the immigration law they will be deemed ineligible for admission to the U.S. or other immigration benefits, the very kinds of benefits these people are seeking in the first place.    To fraudulently vote, non-citizens would have to ignore every real consequence of voter fraud, such as being deported if discovered. And yet some of my colleagues claim that we should be worried about a flood of these instances.    I looked at the numbers, thinking that perhaps despite all the protections in place, this is a widespread problem. But studies and investigations have shown that non-citizen voter fraud makes up .00003 percent, the tiniest percentage of votes cast in this Country.    Just to cite a few examples, only 17 instances of non-citizen voter fraud, again, .0003 percent of the total votes cast were found through Ohio Secretary of State Jon Husted's own investigation, and he is here to testify today, of the 2012 general elections.    Additionally, in a State legislative hearing on the issue in Kansas last year, Secretary of State Kobach, again a guest of us this morning, could only cite 20 non-citizen registrants in the whole State. And out of the 20 non-citizens who were registered, only 5 actually voted, so they are having the same problem with non-citizens voting as we are with citizens actually coming to vote.    So, again, I am disappointed that we are here today spending our valuable time and resources on unfounded concerns, because there are some real concerns out there. I realize that the President's executive orders have spurred extremely polarizing conversations in Congress, but as the ranking member of the National Security Subcommittee, I hope I can work with you, Mr. Chairman, to refocus on our efforts on some of the very real issues that we face moving forward.    Again, I want to thank the panelists for taking the time from their important responsibilities to testify today, and I especially look forward to hearing more about what we are doing to protect the rights of eligible voters in our States and getting the 60 to 70 percent of voters who are legal citizens of this Country but who don't choose to vote.    Thank you, and I yield back.</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>412226</t>
   </si>
   <si>
-    <t>Jim Jordan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Jordan. I thank the chairman.    In the previous, Mr. Lynch, the ranking member, talked about just 20 non-citizens on the voter rolls in Kansas, I think was the example. If it's one, that is a problem. And the issue today is there is potentially five million more potential problems.    So let's remember what got us here. Twenty-two times the President said he couldn't do what he turned around and did. His actions violated the rule of law and the United States Constitution. You don't have to take my word for it; we have all kinds of law professors who say what he did was unlawful and a violation of the Constitution. And not just any law professors, all kinds of liberal law professors said that.    But the point is also it is not just the unconstitutional action the President took last November; it is the unfairness of that action. As the chairman pointed out in his opening Statement, is it fair to seniors that non-citizens are going to get Social Security benefits? Is it fair to taxpayers that non-citizens are going to get tax refunds? Is it fair to legal immigrants that non-citizens, illegals, are going to get moved to the front of the line and slow down the legal immigrants from getting the status they deserve? And is it fair that now there is the potential for non-citizens to participate in our elections?    Those are the issues and that is why we are having this hearing, and that is why I want to welcome our panel. I particularly want to welcome Jon Husted, our Secretary of State, who has done an outstanding job in a State that is always the center of the universe every 4 years in Presidential elections, and just done a commendable job in his work running the elections in our State.    Seven Democrats, Mr. Chairman, seven Democrats in the U.S. Senate, if they would just do what they said should be done last November. Last November, when the President did his violation of the rule of law, violation of the Constitution, executive amnesty order, seven Senate Democrats said it was wrong. If they would just vote to allow our bill to come up for debate. They can amend it, they can try to change it; that is how the process works. They won't even let it come up. If seven Democrats would just do what they said last year should be done, we could get this Department of Homeland Security funded and we could stop the unconstitutional action of the President.    And I again want to thank our panel for being here and highlighting one of the real concerns that exist because of what the President did.    With that, I yield back.</t>
   </si>
   <si>
@@ -88,9 +79,6 @@
     <t>400295</t>
   </si>
   <si>
-    <t>Eleanor Holmes Norton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Norton. I thank you, Mr. Chairman. Actually, I am here for the ranking member. I am a member of the full committee and a member of this subcommittee, but I want to express my condolences to the chair of this committee, Matt Cartwright, whose father passed and who, therefore, cannot be here today. I know our thoughts and prayers are with Representative Cartwright.    This hearing on immigration fraud by non-citizens would be laughable if the subject were not so serious. Latino and other people of color and other immigrants will not regard it as very funny. They will be particularly insulted by this faux hearing on a non-existent issue, and they will be joined by countless of other Americans.    I quote from the testimony, which I will ask to be included in the record, of the Ohio State NAACP. As they say in their testimony, ``Voter fraud has not been perpetuated by immigrants, nor have they been exacerbated by changes in national immigration policies. Rather, we have spent 106 years battling voting fraud, which was perpetuated primarily by election officials who refused to register voters because of what they look like or whose purges appear to be concentrated among certain demographics.''    This hearing, coming as it does on the 50th anniversary of the Voting Rights Act, when Republicans and Democrats are about to go to Selma to commemorate that Act in March, comes close to an insult, and this is particularly so when the Majority has announced, indeed, announced early, that the House will not even have a hearing on the Voting Rights Act.    I want to take a moment to thank Representative Jim Sensenbrenner, Republican of Wisconsin, and Representative John Lewis, Democrat of Georgia and a hero of the civil rights movement, for their co-sponsorship of a bill to update the Voting Rights Act of 1965, as instructed by the Supreme Court of the United States.    It takes chutzpah, or disregard, or even disrespect, to hold a hearing alleging fraud by Latino and other immigrants. What have they received? Only the rudimentary right, the temporary permission to remain in this Country to work, unrelated entirely, of course, as the Majority knows, to the right to vote. The data about fraud is manifestly and overwhelmingly in the other direction. We should be glad that there is something in this Country that you don't have to have a hearing about.    It took minority Americans 150 years after the Civil War to get the same right to vote that other Americans took for granted and often don't even exercise. A couple of years ago the Supreme Court did not nullify the Voting Rights Act, but they did ask this Congress to update it. Instead, we see States covered by the Act already passing laws designed to keep black people and Hispanics from voting, manifestly so, and we see Republicans in the rest of the Country spreading barriers, including Ohio, where we have a witness today and one of the States involved.    The President's executive order gives immigrants the right to stay; immigrants who have been here for years; immigrants who have been working hard and whose labor we have needed. Even the bipartisan immigration reform bill passed by the Senate last Congress would have postponed the right to vote for immigrants for more than a decade.    The Republicans may want to go down in history as the party who tried once again, 100 years later, to nullify the right to vote. Well, I am here today to say they shall not succeed.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -100,18 +88,12 @@
     <t xml:space="preserve">    Mr. DeSantis. All witnesses answered in the affirmative. Thank you. Please be seated.    In order to allow time for discussion, please limit your testimony to 5 minutes. Your entire written Statement will be made a part of the record.    With that, Mr. Husted, you are up.</t>
   </si>
   <si>
-    <t>Husted</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Husted. Thank you, Chairman DeSantis and Ranking Member Lynch and the members of the subcommittee. I appreciate the opportunity to be here today. My name is Jon Husted. I am the Ohio Secretary of State, and in that capacity I serve as our State's chief election official. I am here to proactively address what I believe is an important issue facing my State and the Nation regarding the integrity of our elections.    As the chief elections official in a key swing State, I have tried to build an election system where it is easy to vote and hard to cheat. We have done this by ensuring easy access to the voting process and by working to ensure that only eligible voters are on the voting rolls. I want to bring to your attention my concern that the President's recent immigration accountability executive actions will make it more difficult for elections officials to determine if all voters meet the primary standard for voting, which is U.S. citizenship.    I am not here to debate immigration policy or the President's executive actions. However, I am here to emphatically say that we cannot follow both the Federal law and the executive action and ensure the integrity of the elections process without further assistance from Congress or from the Obama Administration. Let me briefly explain why.    For an estimated four to five million non-citizens, the President's executive actions provide access to Social Security numbers and driver's licenses. These are the same documents that Federal law requires the States to recognize as valid forms of identification for voter registration. Under Federal law, anyone with a valid Social Security number or driver's license number can register to vote provided they attest they are a U.S. citizen. However, there is no way for us to validate this citizenship Statement since, under the executive actions previously, undocumented non-citizens will have access to the same documents as U.S. citizens.    This issue becomes especially complicated in States like Ohio, where millions of dollars are spent on third-party voter registration drives where no election official would be present to make clear the eligibility requirements for voting. By signing the voter registration form and asserting citizenship falsely or erroneously, non-citizens could face real legal consequences. In Ohio, falsification is a fifth degree felony. This could affect their ability to remain in the United States and to become citizens.    Let me interject some perspective before I go further. It is not my belief that four to five million non-citizens are going to get on the voting rolls. Nor is it my belief that third-party registration drive organizers are waiting to exploit this loophole in law. While I am committed to ensuring the security and the integrity of the elections in Ohio and throughout the Country, it is important for us to recognize that people can sometimes sign documents, in this case a voter registration form, without fully comprehending the rules and requirements.    Acknowledging that I do not expect this to be a systemic or widespread problem, we also cannot ignore that there are real electoral consequences. Presidential elections get most of the attention, but every year there are thousands of State and local elections in Ohio, and in the last 15 months alone 70 elections in our State were decided by one vote or tied. Seventy elections were decided by one vote or tied. These were mayoral elections, school and tax levies, bond issues, members of city councils, township trustees, and school boards.    In light of these examples alone, we simply cannot overlook policies that may allow ineligible voters to cast ballots. We want to find the least intrusive solution to closing this loophole without making it unnecessarily difficult to register to vote.    While opinions may vary on the best solution for this issue, one thing is clear: we cannot solve this Federal problem solely at the State level alone.    In a letter to President Obama on January the 27th, I asked that his Administration provide election officials with realtime access to accurate searchable electronic data bases of non-citizens who have valid Social Security numbers. This would enable me and my counterparts in other States to prevent illegal registrations and, more importantly, reassure the public that steps have been taken to ensure only eligible voters are participating in Federal, State, and local elections.    In Ohio we are what we can to prevent non-citizen registrations in voting. We electronically share data between the State's Bureau of Motor Vehicles and our county boards of elections which process voter registrations. This partnership and the data provided allow my office to conduct a review of Ohio's voter rolls to determine if, through the use of a driver's license, non-citizens were registered to vote in Ohio.    Following the 2012 Presidential election, we found through this information that 291 non-citizens were registered to vote and 17 had actually cast ballots. Those 17 were referred for further investigation and prosecution, and my office sent letters to the other 274 to cancel their voter registrations.    However, without Federal assistance, we cannot perform the same cross-match with registrations using Social Security numbers. As a result, these executive actions could significantly increase the potential pool of illegal registrations in Ohio and around the Country.    It is also important to note that Federal law limits the ways States can maintain their voter rolls, in some cases prohibiting States from removing a voter from the rolls until they have been inactive for two consecutive Federal general elections. That means that when evidence suggests a person is a non-citizen on the rolls, we cannot remove them immediately; they have to remove themselves. This makes it especially important that we prevent an ineligible voter from getting on the rolls in the first place.    As I Stated earlier, my focus as the chief elections official in Ohio is to make it easy to vote and hard to cheat. The debate over voter fraud and voter suppression already breeds significant hyperbole from across the political spectrum that erodes public confidence. In this environment, administering elections fairly and accurately becomes more difficult when the path exists where millions more non-citizens can register to vote in elections and elections officials have no way to identify these individuals.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. DeSantis. Thank you, Mr. Husted. Your time has expired. We are going to take your Statement, it will be entered in the record, and you will have the ability to expand on some of that with our questions.    The chair now recognizes Secretary Kobach for 5 minutes.</t>
   </si>
   <si>
-    <t>Kobach</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Kobach. Thank you, Mr. Chairman and members of the committee. I come to you chiefly in my capacity as Kansas's Secretary of State, but also in my private capacity I am the lead attorney representing 10 ICE agents who sued the Secretary of Homeland Security in the case of Crane vs. Napolitano, now Crane vs. Johnson. The District Court in Texas ruled that the President's first executive amnesty violates Federal law at 8 U.S.C. 1225(b)(2)(A) by ordering ICE agents to refrain from placing into removal proceedings aliens who are required to be placed into removal proceedings by Federal law.    I mention this because it is problematic for so many legal reasons what this executive amnesty has done. But let's talk a little bit about the voter fraud that we have observed empirically in the State of Kansas.    At the outset, it is important to note that four States, Kansas, Arizona, Georgia, and Alabama, require proof of citizenship, documentary proof of citizenship when the person registers. In the other 46 States they are exceedingly vulnerable to what this executive amnesty has done, but even in those four States, because of the recent decision of the Election Assistance Commission, a board that is not supposed to have any policymaking authority, people can use the Federal form to circumvent our proof of citizenship requirement in those four States.    I want to give you a few examples of aliens being registered and voting illegally in the State of Kansas. The most notorious case was in Seward County, in southwest Kansas, in 1997. There was a county issue on the ballot whether or not to prohibit a certain kind of hog farming operation. Across the border, in Guymon, Oklahoma, there was a processing plant where they hoped to render the hogs that were raised in Kansas.    Shortly before election day, according to the testimony of the county clerk of Seward County, an envelope arrived with about 50 registration cards from employees at the hog processing plant in Oklahoma giving, in many cases, fictitious addresses in Kansas and asking to be registered in Kansas. She knew, based on her own personal knowledge of some of the individuals and in subsequent observations, that many, if not, most of these were not U.S. citizens, and also based on her knowledge of the composition of the plant employee base. But she was powerless at that time to do anything about it.    They were registered and on election day many van load after many van load of employees at the Guymon plant in Oklahoma came north and voted in Kansas to try to steal that election. Fortunately, it was a very high election turnout; it was a very contentious issue. Fifty-one percent turned out and the illegal votes did not prevail and sway and overcome the votes of the U.S. citizens.    I want to give you another example. In August 2010, across the river from where I live, I am in Kansas City, Kansas, in North Kansas City, Missouri, this one has been widely reported in the press, August primary in a district for a State representative seat between Rizzo and Royster. According to the sworn testimony of poll workers, and I have attached one of those to my written testimony, they observed approximately 50 Somali nationals who were brought in by a coach and the ballot was translated for those individuals. They were instructed to vote for Mr. Rizzo and in that case Mr. Rizzo won the election by one vote. Successful use of aliens to steal an election.    Again, it occurs typically in smaller elections, not so much in mass, nationwide elections.    I give you another example in my testimony of 20 aliens in Kansas. Now, it was mentioned in some of the opening remarks that, well, that 20 is not very much. Well, those 20 are the ones where we know the exact name of the alien and we presented those to Federal District Court in a separate litigation. We know of many others, including the 50 in Seward County, but we don't have the exact names.    And this illustrates a problem. Once the alien gets on the voter rolls, there is no magical way you can say that must be an alien or that must be an alien. You cannot identify them once they are on, except for very limited ways, such as using your driver's license data base to cross-match in those limited cases where the driver's license indicates that it is an alien and not a citizen. So this is an irreversible consequence. Once these individuals get on the voter rolls, you are not going to get them off except in very, very rare circumstances.    Now, I want to talk a little bit about how the President's directive actually exacerbates the problem. In many States these aliens will get a driver's license once they have an employment authorization document. Some States, like Wisconsin, State law requires it to be issued. In all of the 10 States of the Ninth Circuit now, they will have to give these individuals driver's licenses. That comes out of a decision that the Ninth Circuit rendered last year. So that does change things.    Five point eight million illegal aliens who previously did not have a driver's license now have the ability to get one, and they certainly have the ability to get a Social Security number, which will in turn allow them to register to vote. If these aliens in Kansas, or in Arizona, Alabama, Georgia, even our States where you have proof of citizenship, if they use the Federal form, they can register to vote.    This is a problem. These consequences are irreversible. And we are trying to fight this in the courts, but the courts are taking a long time to hear these issues, even though they have, to date, agreed with our position that it is illegal and it is a problem. The consequences are not imaginary, the numbers are real, and we need your help in dealing with it.</t>
   </si>
   <si>
@@ -121,9 +103,6 @@
     <t xml:space="preserve">    Mr. DeSantis. The gentleman's time has expired.    The chair now recognizes Secretary Dunlap for 5 minutes.</t>
   </si>
   <si>
-    <t>Dunlap</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Dunlap. Thank you, Mr. Chairman, distinguished members of the committee. My name is Matt Dunlap. I live in Old Town, Maine, and I am Maine's Secretary of State, and I thank you for the opportunity to sit with you today and talk a little bit about the aspects of voter registration and some of the supporting documents that we utilize to ensure the integrity of that process.    I am also the chief motor vehicle official for the State of Maine, so we issue about a million driver's licenses, and that process has changed significantly over the last 10, 15 years, and I will speak to that quite briefly.    I am quite pleased to tell you that in the State of Maine, at least, registering to vote, along with every other aspect of the elections process, is highly accessible to qualified citizens and is quite secure. In order to register to vote, you fill out the registration card, you have to present a photo identification or non-photo government official documentation, provide an official document that shows proof of your residency; and we allow for election day registration, no-excuse absentee balloting. We had strong systems in the military and overseas voter empowerment act. We have a number of provisions in the law that open the doors to voters to come and participate in our process.    In the 10 years that I have been Secretary of State, we have sent two cases of misuse of a ballot to the attorney general for prosecution. Now, I think it is important for me to note here, in the discussion that is centered today around the prospect of voter fraud, that no amount of fraud is acceptable.    Nonetheless, it is extraordinarily rare, so what we talk about in the context of voter access is the importance of having integrity in the process, but also access. People need to know that that system belongs to them and that they can trust it. So the processes that we have in place, including a series of sworn Statements that people take an oath to, works quite well and is well policed by local elections officials.    The consequences for violating Maine election law are fairly precipitous. In fact, under one of the very first sections of Title 21-A in the Maine revised statutes, it says a person is guilty of a crime if they knowingly violate a provision of this title for which no penalty has already been provided. So the message there is don't even think about it. And for people who are non-immigrant aliens, the consequences for attempting to register to vote or vote are even more precipitous. After they serve a prison sentence, they are deported and can no longer seek admission as a citizen to our Country.    Now, assuming that they get that far, it is also important to know that the documents that they have access to are heavily described in law to prevent misuse of those documents, including the driver's license. It used to be all you had to do was pass the eye test, written test, and road test. But now you also have to provide proof of citizenship or legal presence in this Country. If you are eligible for a Social Security number, you must provide it to us. And these things have done an awful lot to make the credentials more secure, but also less convenient to obtain for our citizens.    In terms of the work that we do on voter registration and driver's license issuance, it is important for me to note, in looking over the executive orders, that the executive orders really change nothing in how we do our work. The protections in our systems remain, they are uncompromised, and, at least in the State of Maine, they work pretty well.    What I have experienced as the chief motor vehicle officer in the State of Maine is that, actually, a lot of the new requirements I just described, which run parallel to requirements for compliance to the Real ID Act of 2005, do create profound hardships for American citizens trying to comply, and we spend a lot of time in our exceptions process trying to make sure people can comply with the law.    As an administrator, you have to treat everybody the same. It is easy to isolate people and call them potential terrorists or illegal aliens using systems that the Federal Government has very neatly exempted itself from participating in, but when you have people who are born in Canada, who are American citizens, trying to prove that they are Americans can be a troubling process for them; and we spend a lot of time trying to help American citizens comply with our laws.    We have never had an experience as described by my colleagues, with undocumented aliens trying to throw our elections. My experience is they don't come here to vote and they don't come here to drive; they come here to find a better life; and the changes in immigration law which make it very difficult for them to pursue that is occupied entirely by the Federal Government. That field is yours, and yours alone. It is our job to try to help citizens comply with the law.    I will try to answer any questions at the pleasure of the chair that come from this committee, sir.</t>
   </si>
   <si>
@@ -427,9 +406,6 @@
     <t>412213</t>
   </si>
   <si>
-    <t>Tim Walberg</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Walberg. Thank you, Mr. Chairman, and I thank the panel for being here. And though this cuts into some of my questioning time, I think it is important that I express real concern, and even offense, at some of the Statements that are being made. I hope it comes from emotion, and not from the heart of hearts, that any party is attempting to quash and take away the rights that are given to all citizens of this Country, all legal citizens of this Country, regardless of color, race, creed, origin, gender. That is not happening with any of my support, and I know my colleagues as well.    I also say that that is offensive to those legal and documented aliens who serve in my communities well in providing services on farms, in hospitality, in construction, in IT, and all sorts of things that are extremely important to us, and yet they are doing it legally.    I say it as a proud father-in-law of a Rwandan who is here on an appropriate legal visa in the United States right now that expires in April, and he, with my daughter, will be going back to their home in Uganda. I say it as well based upon the fact that this hearing is important not so much even for the issues of voting, but the issue of constitutionality and the strength of our Constitution, a Constitution that a legal constitutional scholar, our President, Stated 22 times he did not have the power to do this executive order, and then he did it. This is a constitutional crisis that we are dealing with and this is one of the issues that has resulted from that constitutional crisis.    So I make that Statement. I believe it is important for us to make sure that is on the record as well, that we want to see this Country move forward legally, and all citizens, all legals that are here are treated justly and fairly.    Mr. von Spakovsky, how big do you think this problem is?    Mr. von Spakovsky. Well, it is really hard for us to know because there is no systematic verification of citizenship status across the Country; we can only get a rough idea of it.</t>
   </si>
   <si>
@@ -451,9 +427,6 @@
     <t xml:space="preserve">    Mr. DeSantis. The gentleman's time has expired.    The chair notes the presence of the committee chairman, Mr. Chaffetz. Would you like to be recognized?    The chair now recognizes the gentleman from California for 5 minutes.</t>
   </si>
   <si>
-    <t>Lieu</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lieu. Thank you, Mr. Chair.    Mr. Husted, for the record, I believe that Congresswoman Norton was talking about a 2012 case and you were giving answers to a 2014 case. That is sort of my understanding of her interchange.    But my questions are for Mr. Dunlap. I have heard a lot of hypotheticals today. I am sure anything can happen. It is certainly possible that that .002 percent change could 1 day affect the State of Ohio, that could 1 day affect a Presidential election. Anything is possible. But I just note that in the last election two-thirds of Americans did not vote. That number dwarfs by orders of magnitude .002 percent, and my view is that in our republic, in our democracy, we are better served by having as many eligible voters vote as possible. Everyone's time is limited and constrained. I think that our democracy is better if the 50 secretaries of State focused their time on increasing voter turnout for eligible voters, that makes our Country stronger, than focusing on .002 percent hypotheticals.    So let's talk about what the actual laws are right now in America.    Mr. Dunlap, can you just walk through again the requirements that an individual must meet to be eligible to vote in your State of Maine?</t>
   </si>
   <si>
@@ -499,9 +472,6 @@
     <t>412623</t>
   </si>
   <si>
-    <t>Jody B. Hice</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hice. Thank you, Mr. Chairman.    I think it has been clearly established here so far that I don't think there is anyone in the room that would not acknowledge that there at least have been instances, as you have brought up, in the thousands, perhaps, in fact, certainly over the course of time. We have examples from North Carolina and Minnesota extensively so. We all know that there have been problems of voter fraud. We also know that Federal law authorizes the Department of Justice to prosecute non-citizens for both registering and voting. This is a criminal offense and, as has just been mentioned, can result in removal from the Country.    My first question to each of you, do you know, to the best of your knowledge, of any example where the Department of Justice has in fact brought charges against anyone or deported them?</t>
   </si>
   <si>
@@ -535,9 +505,6 @@
     <t xml:space="preserve">    Mr. DeSantis. The gentleman's time has expired.    The chair now recognizes Ms. Kelly for 5 minutes.</t>
   </si>
   <si>
-    <t>Kelly</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Kelly. Thank you, Mr. Chair. I would first like to ask for unanimous consent to enter a Statement into the record by our colleague, Congresswoman Marcia L. Fudge, who represents the 11th District of Ohio.</t>
   </si>
   <si>
@@ -574,9 +541,6 @@
     <t>412622</t>
   </si>
   <si>
-    <t>Earl L. "Buddy" Carter</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Carter. Thank you, Mr. Chairman.    Gentlemen, thank you for being here. Appreciate you for being here very much.    Full disclosure: I am from Georgia, and in Georgia we are only one of four States that has a voter ID law. In further full disclosure, I am proud of the fact that I was a member of the Georgia State legislature when we passed that bill, and I voted in favor of it and even co-sponsored it. So full disclosure there.    I want to ask each of you, if you will, do you think it is one of our greatest rights here in America, the right to vote? Do you value that, as I do, as one of your greatest rights as a citizen?</t>
   </si>
   <si>
@@ -655,9 +619,6 @@
     <t>412644</t>
   </si>
   <si>
-    <t>Bonnie Watson Coleman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Watson Coleman. Thank you, Mr. Chairman. First of all, I would like to ask unanimous consent to enter certain forms into the record, and those forms are the voter registration forms for Kansas, Ohio, and Maine. I think each of these documents clearly asks whether the submitter is a U.S. citizen. Kansas, for example, has a clear Statement saying, Warning: If you submit a false voter registration application, you may be convicted and sentenced to up to 17 months in prison. So I ask unanimous consent to enter this form into the record because it seems clear to me that non-citizens who receive a driver's license are fully apprised of the consequences of lying about citizenship on their applications.</t>
   </si>
   <si>
@@ -727,9 +688,6 @@
     <t>412670</t>
   </si>
   <si>
-    <t>Mark Walker</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Walker. Thank you, Mr. Chairman. I would like to commend you guys for the duration here and hanging in there. But I think even more I am impressed with these young ladies who have sit on this front row the entire time. I don't know who their parents are, but maybe we need to have you back on a committee on parenting or something. So, yes, excellent job there. Well behaved.    I want to start off by addressing something absolutely crucial to the understanding and the purpose of this hearing. I have heard a few comments today saying this is frivolous, why are we here, but let's be clear. The exact purpose that we are here today, and that is because of President Obama's executive overreach. Whatever the President could not pass through Congress in his first 6 years is now getting force-fed to all Americans. He has created chaos at the Federal, National, and at the State level by expanding the executive powers at whim. That is one of the reasons that you guys are here today.    Strong Statement, but I believe his disrespect of the presidency, that is, the President, the legislative process, and the States as independent sovereign bodies. Most of all, he has cheated Americans out of their constitutional prerogative to be heard by their elected representatives.    I do have a question. It seems like today that we have tried to make a case in some instances that only a little bit of illegal activity is OK. I don't understand that, so my question is what percentage of voter fraud is OK. I know that is rhetorical, but I would love to hear just a quick response on how you feel about that for the record.</t>
   </si>
   <si>
@@ -772,9 +730,6 @@
     <t xml:space="preserve">    Mr. DeSantis. The gentleman's time has expired.    The chair now recognizes the gentleman from Tennessee, Mr. Duncan, for 5 minutes.</t>
   </si>
   <si>
-    <t>Duncan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Duncan. Well, thank you, Mr. Chairman.    I had other meetings, and I apologize if I get into something that you have already covered, but I read in our briefing paper that it says non-citizen voting is a criminal offense under 18 U.S. Code Section 611, and a removable offense in INA Section 212, various subsets. But then it is very seldom prosecuted, seemingly, because there are not high-profile people involved in it, and too many prosecutors don't seem to want to prosecute things unless they are going to get some good publicity about it.    Our briefing paper also says the California Secretary of State reported in 1998 that 2,000 to 3,000 of the individuals summoned for jury duty in Orange County each month claimed an exemption from jury service because they were not U.S. citizens. But these individuals were summoned from the voter registration list. It seems to me that if that kind of thing is happening in that one county, this is a much bigger problem than perhaps some people have said here today.    Mr. von Spakovsky, I know you wrote a book about this, I think, at one point. Now, in one of our briefing things it says that voter fraud could be dramatically reduced if Federal, State, and local governments simply share the information they already obtain regarding citizenship status. Do you agree with that? And what would be the No. 1 thing that you think we could do that is not being done now, or should be done that is not being done now?    Mr. von Spakovsky. Require DHS to put in an easily checked system that allows the Secretaries of State, such as the gentlemen here today, to run data comparisons between their State voter registration lists and DHS records, similar to what, frankly, the State of Kansas is already now doing with a number of other States, where they are doing data comparisons to find people who have registered in multiple States.</t>
   </si>
   <si>
@@ -782,9 +737,6 @@
   </si>
   <si>
     <t xml:space="preserve">    Mr. DeSantis. The gentleman yields back.    We are happy to welcome Mr. Castro from Texas, who is not on the committee, but asked to be waived on, and I will now recognize you for 5 minutes.</t>
-  </si>
-  <si>
-    <t>Castro</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Castro. Thank you, Chairman DeSantis, and thank you for the courtesy of allowing me to be here. This is an issue that I take great interest in. I served in the Texas legislature when the legislature passed the Texas voter ID law. It was around the same time that redistricting plan was passed in Texas, which a Federal court found intentionally discriminated against minorities in Texas, African-Americans and Hispanics. So I apologize, like all of us who have been running around, I may have a few questions over which you have already tread.    But let me ask each of you very quickly what was the participation rate in each of your States for the 2014 mid-term elections? Just a number real quick, or ballpark.</t>
@@ -1357,11 +1309,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1381,13 +1331,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1409,11 +1357,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1435,11 +1381,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1459,13 +1403,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1487,11 +1429,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1511,13 +1451,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1539,11 +1477,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1565,11 +1501,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1589,13 +1523,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1617,11 +1549,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1641,13 +1571,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1669,11 +1597,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1695,11 +1621,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1719,13 +1643,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s">
-        <v>35</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1747,11 +1669,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1771,13 +1691,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
         <v>31</v>
-      </c>
-      <c r="H18" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1799,11 +1717,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1823,13 +1739,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1851,11 +1765,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1875,13 +1787,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1903,11 +1813,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1927,13 +1835,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1955,11 +1861,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1981,11 +1885,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2007,11 +1909,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2031,13 +1931,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>35</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2059,11 +1957,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2083,13 +1979,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s">
-        <v>35</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2111,11 +2005,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2135,13 +2027,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2161,13 +2051,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2187,13 +2075,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2213,13 +2099,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s">
-        <v>35</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2239,13 +2123,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2265,13 +2147,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s">
-        <v>35</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2291,13 +2171,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2317,13 +2195,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>35</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2343,13 +2219,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2369,13 +2243,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s">
-        <v>35</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2395,13 +2267,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2421,13 +2291,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>35</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2447,13 +2315,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2473,13 +2339,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s">
-        <v>35</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2499,13 +2363,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2527,11 +2389,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2551,13 +2411,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>19</v>
-      </c>
-      <c r="G48" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2577,13 +2435,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2603,13 +2459,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>19</v>
-      </c>
-      <c r="G50" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2629,13 +2483,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2655,13 +2507,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>19</v>
-      </c>
-      <c r="G52" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2681,13 +2531,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2707,13 +2555,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>19</v>
-      </c>
-      <c r="G54" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2733,13 +2579,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2759,13 +2603,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>19</v>
-      </c>
-      <c r="G56" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2785,13 +2627,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2811,13 +2651,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>19</v>
-      </c>
-      <c r="G58" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2837,13 +2675,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2863,13 +2699,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>19</v>
-      </c>
-      <c r="G60" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2889,13 +2723,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2915,13 +2747,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>19</v>
-      </c>
-      <c r="G62" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2941,13 +2771,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2967,13 +2795,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>19</v>
-      </c>
-      <c r="G64" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2993,13 +2819,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3019,13 +2843,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>19</v>
-      </c>
-      <c r="G66" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3045,13 +2867,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3071,13 +2891,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>19</v>
-      </c>
-      <c r="G68" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3097,13 +2915,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>14</v>
-      </c>
-      <c r="G69" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3123,13 +2939,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>19</v>
-      </c>
-      <c r="G70" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3149,13 +2963,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>14</v>
-      </c>
-      <c r="G71" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3175,13 +2987,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>19</v>
-      </c>
-      <c r="G72" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3201,13 +3011,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>14</v>
-      </c>
-      <c r="G73" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3227,13 +3035,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>19</v>
-      </c>
-      <c r="G74" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3253,13 +3059,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3279,13 +3083,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>19</v>
-      </c>
-      <c r="G76" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3305,13 +3107,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>14</v>
-      </c>
-      <c r="G77" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3331,13 +3131,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>19</v>
-      </c>
-      <c r="G78" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3357,13 +3155,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>14</v>
-      </c>
-      <c r="G79" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3383,13 +3179,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>19</v>
-      </c>
-      <c r="G80" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3409,13 +3203,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>14</v>
-      </c>
-      <c r="G81" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3435,13 +3227,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>19</v>
-      </c>
-      <c r="G82" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3461,13 +3251,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>14</v>
-      </c>
-      <c r="G83" t="s">
-        <v>35</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3487,13 +3275,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>19</v>
-      </c>
-      <c r="G84" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3513,13 +3299,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" t="s">
-        <v>35</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3539,13 +3323,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>19</v>
-      </c>
-      <c r="G86" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3565,13 +3347,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>14</v>
-      </c>
-      <c r="G87" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3591,13 +3371,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>19</v>
-      </c>
-      <c r="G88" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3617,13 +3395,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>14</v>
-      </c>
-      <c r="G89" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3643,13 +3419,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>19</v>
-      </c>
-      <c r="G90" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3671,11 +3445,9 @@
       <c r="F91" t="s">
         <v>11</v>
       </c>
-      <c r="G91" t="s">
-        <v>12</v>
-      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3695,13 +3467,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>23</v>
-      </c>
-      <c r="G92" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3721,13 +3491,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>14</v>
-      </c>
-      <c r="G93" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3747,13 +3515,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>23</v>
-      </c>
-      <c r="G94" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3773,13 +3539,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>14</v>
-      </c>
-      <c r="G95" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3799,13 +3563,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>23</v>
-      </c>
-      <c r="G96" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3825,13 +3587,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>14</v>
-      </c>
-      <c r="G97" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3851,13 +3611,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>23</v>
-      </c>
-      <c r="G98" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3877,13 +3635,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>14</v>
-      </c>
-      <c r="G99" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3903,13 +3659,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>23</v>
-      </c>
-      <c r="G100" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3929,13 +3683,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>14</v>
-      </c>
-      <c r="G101" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3955,13 +3707,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>23</v>
-      </c>
-      <c r="G102" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3981,13 +3731,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>14</v>
-      </c>
-      <c r="G103" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4007,13 +3755,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>23</v>
-      </c>
-      <c r="G104" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4033,13 +3779,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>14</v>
-      </c>
-      <c r="G105" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4059,13 +3803,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>23</v>
-      </c>
-      <c r="G106" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4085,13 +3827,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>14</v>
-      </c>
-      <c r="G107" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4111,13 +3851,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>23</v>
-      </c>
-      <c r="G108" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4137,13 +3875,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>14</v>
-      </c>
-      <c r="G109" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4163,13 +3899,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>23</v>
-      </c>
-      <c r="G110" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4189,13 +3923,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>14</v>
-      </c>
-      <c r="G111" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4215,13 +3947,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>23</v>
-      </c>
-      <c r="G112" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4241,13 +3971,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>14</v>
-      </c>
-      <c r="G113" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4267,13 +3995,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>23</v>
-      </c>
-      <c r="G114" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4293,13 +4019,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>14</v>
-      </c>
-      <c r="G115" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4319,13 +4043,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>23</v>
-      </c>
-      <c r="G116" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4347,11 +4069,9 @@
       <c r="F117" t="s">
         <v>11</v>
       </c>
-      <c r="G117" t="s">
-        <v>12</v>
-      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4371,13 +4091,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>14</v>
-      </c>
-      <c r="G118" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4399,11 +4117,9 @@
       <c r="F119" t="s">
         <v>11</v>
       </c>
-      <c r="G119" t="s">
-        <v>12</v>
-      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4423,13 +4139,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>136</v>
-      </c>
-      <c r="G120" t="s">
-        <v>137</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4449,13 +4163,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>136</v>
-      </c>
-      <c r="G121" t="s">
-        <v>137</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4475,13 +4187,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>136</v>
-      </c>
-      <c r="G122" t="s">
-        <v>137</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4501,13 +4211,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>136</v>
-      </c>
-      <c r="G123" t="s">
-        <v>137</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4527,13 +4235,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>136</v>
-      </c>
-      <c r="G124" t="s">
-        <v>137</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4553,13 +4259,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>136</v>
-      </c>
-      <c r="G125" t="s">
-        <v>137</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4581,11 +4285,9 @@
       <c r="F126" t="s">
         <v>11</v>
       </c>
-      <c r="G126" t="s">
-        <v>12</v>
-      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4605,13 +4307,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>14</v>
-      </c>
-      <c r="G127" t="s">
-        <v>145</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4631,13 +4331,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>14</v>
-      </c>
-      <c r="G128" t="s">
-        <v>35</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4657,13 +4355,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>14</v>
-      </c>
-      <c r="G129" t="s">
-        <v>145</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4683,13 +4379,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>14</v>
-      </c>
-      <c r="G130" t="s">
-        <v>35</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4709,13 +4403,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>14</v>
-      </c>
-      <c r="G131" t="s">
-        <v>145</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4735,13 +4427,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>14</v>
-      </c>
-      <c r="G132" t="s">
-        <v>35</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4761,13 +4451,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>14</v>
-      </c>
-      <c r="G133" t="s">
-        <v>145</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4787,13 +4475,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>14</v>
-      </c>
-      <c r="G134" t="s">
-        <v>35</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4813,13 +4499,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>14</v>
-      </c>
-      <c r="G135" t="s">
+        <v>13</v>
+      </c>
+      <c r="G135" t="s"/>
+      <c r="H135" t="s">
         <v>145</v>
-      </c>
-      <c r="H135" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4839,13 +4523,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>14</v>
-      </c>
-      <c r="G136" t="s">
-        <v>35</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4865,13 +4547,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>14</v>
-      </c>
-      <c r="G137" t="s">
-        <v>145</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4893,11 +4573,9 @@
       <c r="F138" t="s">
         <v>11</v>
       </c>
-      <c r="G138" t="s">
-        <v>12</v>
-      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4917,13 +4595,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>14</v>
-      </c>
-      <c r="G139" t="s">
-        <v>145</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4945,11 +4621,9 @@
       <c r="F140" t="s">
         <v>11</v>
       </c>
-      <c r="G140" t="s">
-        <v>12</v>
-      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4969,13 +4643,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>160</v>
-      </c>
-      <c r="G141" t="s">
-        <v>161</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4995,13 +4667,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>14</v>
-      </c>
-      <c r="G142" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5021,13 +4691,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>14</v>
-      </c>
-      <c r="G143" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5047,13 +4715,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>160</v>
-      </c>
-      <c r="G144" t="s">
-        <v>161</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5073,13 +4739,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>14</v>
-      </c>
-      <c r="G145" t="s">
-        <v>35</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5099,13 +4763,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>160</v>
-      </c>
-      <c r="G146" t="s">
-        <v>161</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5125,13 +4787,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>14</v>
-      </c>
-      <c r="G147" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5151,13 +4811,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>160</v>
-      </c>
-      <c r="G148" t="s">
-        <v>161</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5177,13 +4835,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>14</v>
-      </c>
-      <c r="G149" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5203,13 +4859,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>160</v>
-      </c>
-      <c r="G150" t="s">
+        <v>151</v>
+      </c>
+      <c r="G150" t="s"/>
+      <c r="H150" t="s">
         <v>161</v>
-      </c>
-      <c r="H150" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5231,11 +4885,9 @@
       <c r="F151" t="s">
         <v>11</v>
       </c>
-      <c r="G151" t="s">
-        <v>12</v>
-      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5255,13 +4907,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>14</v>
-      </c>
-      <c r="G152" t="s">
-        <v>173</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5283,11 +4933,9 @@
       <c r="F153" t="s">
         <v>11</v>
       </c>
-      <c r="G153" t="s">
-        <v>12</v>
-      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5307,13 +4955,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>14</v>
-      </c>
-      <c r="G154" t="s">
-        <v>173</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5333,13 +4979,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>14</v>
-      </c>
-      <c r="G155" t="s">
-        <v>173</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5359,13 +5003,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>14</v>
-      </c>
-      <c r="G156" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5385,13 +5027,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>14</v>
-      </c>
-      <c r="G157" t="s">
-        <v>173</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5411,13 +5051,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>14</v>
-      </c>
-      <c r="G158" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5437,13 +5075,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>14</v>
-      </c>
-      <c r="G159" t="s">
-        <v>173</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5463,13 +5099,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>14</v>
-      </c>
-      <c r="G160" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5489,13 +5123,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>14</v>
-      </c>
-      <c r="G161" t="s">
-        <v>173</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5517,11 +5149,9 @@
       <c r="F162" t="s">
         <v>11</v>
       </c>
-      <c r="G162" t="s">
-        <v>12</v>
-      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5541,13 +5171,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>185</v>
-      </c>
-      <c r="G163" t="s">
-        <v>186</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5567,13 +5195,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>14</v>
-      </c>
-      <c r="G164" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5593,13 +5219,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>185</v>
-      </c>
-      <c r="G165" t="s">
-        <v>186</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5619,13 +5243,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>14</v>
-      </c>
-      <c r="G166" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5645,13 +5267,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>14</v>
-      </c>
-      <c r="G167" t="s">
-        <v>35</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5671,13 +5291,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>185</v>
-      </c>
-      <c r="G168" t="s">
-        <v>186</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5697,13 +5315,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>14</v>
-      </c>
-      <c r="G169" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5723,13 +5339,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>185</v>
-      </c>
-      <c r="G170" t="s">
-        <v>186</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5749,13 +5363,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>14</v>
-      </c>
-      <c r="G171" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5775,13 +5387,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>185</v>
-      </c>
-      <c r="G172" t="s">
-        <v>186</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5801,13 +5411,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>14</v>
-      </c>
-      <c r="G173" t="s">
-        <v>35</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5827,13 +5435,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
+        <v>174</v>
+      </c>
+      <c r="G174" t="s"/>
+      <c r="H174" t="s">
         <v>185</v>
-      </c>
-      <c r="G174" t="s">
-        <v>186</v>
-      </c>
-      <c r="H174" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5853,13 +5459,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>14</v>
-      </c>
-      <c r="G175" t="s">
-        <v>35</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5879,13 +5483,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>185</v>
-      </c>
-      <c r="G176" t="s">
-        <v>186</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5905,13 +5507,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>14</v>
-      </c>
-      <c r="G177" t="s">
-        <v>35</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5931,13 +5531,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>185</v>
-      </c>
-      <c r="G178" t="s">
-        <v>186</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5957,13 +5555,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>14</v>
-      </c>
-      <c r="G179" t="s">
-        <v>35</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5983,13 +5579,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>185</v>
-      </c>
-      <c r="G180" t="s">
-        <v>186</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6009,13 +5603,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>14</v>
-      </c>
-      <c r="G181" t="s">
-        <v>35</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6035,13 +5627,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>185</v>
-      </c>
-      <c r="G182" t="s">
-        <v>186</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6061,13 +5651,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>14</v>
-      </c>
-      <c r="G183" t="s">
-        <v>35</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6087,13 +5675,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>185</v>
-      </c>
-      <c r="G184" t="s">
-        <v>186</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6113,13 +5699,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>14</v>
-      </c>
-      <c r="G185" t="s">
-        <v>35</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6139,13 +5723,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>185</v>
-      </c>
-      <c r="G186" t="s">
-        <v>186</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6167,11 +5749,9 @@
       <c r="F187" t="s">
         <v>11</v>
       </c>
-      <c r="G187" t="s">
-        <v>12</v>
-      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6193,11 +5773,9 @@
       <c r="F188" t="s">
         <v>11</v>
       </c>
-      <c r="G188" t="s">
-        <v>12</v>
-      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6217,13 +5795,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>212</v>
-      </c>
-      <c r="G189" t="s">
-        <v>213</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6245,11 +5821,9 @@
       <c r="F190" t="s">
         <v>11</v>
       </c>
-      <c r="G190" t="s">
-        <v>12</v>
-      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6269,13 +5843,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>212</v>
-      </c>
-      <c r="G191" t="s">
-        <v>213</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6295,13 +5867,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>212</v>
-      </c>
-      <c r="G192" t="s">
-        <v>213</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6321,13 +5891,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>14</v>
-      </c>
-      <c r="G193" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6347,13 +5915,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>212</v>
-      </c>
-      <c r="G194" t="s">
-        <v>213</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6373,13 +5939,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>14</v>
-      </c>
-      <c r="G195" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6399,13 +5963,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>212</v>
-      </c>
-      <c r="G196" t="s">
-        <v>213</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6425,13 +5987,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>14</v>
-      </c>
-      <c r="G197" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6451,13 +6011,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>212</v>
-      </c>
-      <c r="G198" t="s">
-        <v>213</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6477,13 +6035,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>14</v>
-      </c>
-      <c r="G199" t="s">
-        <v>35</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6503,13 +6059,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>212</v>
-      </c>
-      <c r="G200" t="s">
-        <v>213</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6529,13 +6083,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>14</v>
-      </c>
-      <c r="G201" t="s">
-        <v>35</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6555,13 +6107,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>212</v>
-      </c>
-      <c r="G202" t="s">
+        <v>200</v>
+      </c>
+      <c r="G202" t="s"/>
+      <c r="H202" t="s">
         <v>213</v>
-      </c>
-      <c r="H202" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6581,13 +6131,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>14</v>
-      </c>
-      <c r="G203" t="s">
-        <v>35</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6607,13 +6155,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>212</v>
-      </c>
-      <c r="G204" t="s">
-        <v>213</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6633,13 +6179,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>14</v>
-      </c>
-      <c r="G205" t="s">
-        <v>35</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6659,13 +6203,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>212</v>
-      </c>
-      <c r="G206" t="s">
-        <v>213</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6685,13 +6227,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>14</v>
-      </c>
-      <c r="G207" t="s">
-        <v>35</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6711,13 +6251,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>212</v>
-      </c>
-      <c r="G208" t="s">
-        <v>213</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6737,13 +6275,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>14</v>
-      </c>
-      <c r="G209" t="s">
-        <v>35</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6763,13 +6299,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>212</v>
-      </c>
-      <c r="G210" t="s">
-        <v>213</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6791,11 +6325,9 @@
       <c r="F211" t="s">
         <v>11</v>
       </c>
-      <c r="G211" t="s">
-        <v>12</v>
-      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6815,13 +6347,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>236</v>
-      </c>
-      <c r="G212" t="s">
-        <v>237</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6841,13 +6371,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>14</v>
-      </c>
-      <c r="G213" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6867,13 +6395,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>236</v>
-      </c>
-      <c r="G214" t="s">
-        <v>237</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6893,13 +6419,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>14</v>
-      </c>
-      <c r="G215" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6919,13 +6443,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>236</v>
-      </c>
-      <c r="G216" t="s">
-        <v>237</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6945,13 +6467,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>236</v>
-      </c>
-      <c r="G217" t="s">
-        <v>237</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6971,13 +6491,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>14</v>
-      </c>
-      <c r="G218" t="s">
-        <v>35</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6997,13 +6515,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>236</v>
-      </c>
-      <c r="G219" t="s">
-        <v>237</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7023,13 +6539,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>14</v>
-      </c>
-      <c r="G220" t="s">
-        <v>35</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7049,13 +6563,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>236</v>
-      </c>
-      <c r="G221" t="s">
-        <v>237</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7075,13 +6587,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>14</v>
-      </c>
-      <c r="G222" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7101,13 +6611,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>236</v>
-      </c>
-      <c r="G223" t="s">
-        <v>237</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7127,13 +6635,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>14</v>
-      </c>
-      <c r="G224" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7155,11 +6661,9 @@
       <c r="F225" t="s">
         <v>11</v>
       </c>
-      <c r="G225" t="s">
-        <v>12</v>
-      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7179,13 +6683,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>14</v>
-      </c>
-      <c r="G226" t="s">
-        <v>252</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7205,13 +6707,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>14</v>
-      </c>
-      <c r="G227" t="s">
-        <v>252</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7233,11 +6733,9 @@
       <c r="F228" t="s">
         <v>11</v>
       </c>
-      <c r="G228" t="s">
-        <v>12</v>
-      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7257,13 +6755,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>14</v>
-      </c>
-      <c r="G229" t="s">
-        <v>256</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7283,13 +6779,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>14</v>
-      </c>
-      <c r="G230" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7309,13 +6803,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>14</v>
-      </c>
-      <c r="G231" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7335,13 +6827,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>14</v>
-      </c>
-      <c r="G232" t="s">
-        <v>256</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7361,13 +6851,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>14</v>
-      </c>
-      <c r="G233" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7387,13 +6875,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>14</v>
-      </c>
-      <c r="G234" t="s">
-        <v>256</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7413,13 +6899,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>14</v>
-      </c>
-      <c r="G235" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7439,13 +6923,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>14</v>
-      </c>
-      <c r="G236" t="s">
-        <v>256</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7465,13 +6947,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>14</v>
-      </c>
-      <c r="G237" t="s">
-        <v>35</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7491,13 +6971,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>14</v>
-      </c>
-      <c r="G238" t="s">
-        <v>256</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7517,13 +6995,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>14</v>
-      </c>
-      <c r="G239" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7543,13 +7019,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>14</v>
-      </c>
-      <c r="G240" t="s">
-        <v>256</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7569,13 +7043,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>14</v>
-      </c>
-      <c r="G241" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7595,13 +7067,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>14</v>
-      </c>
-      <c r="G242" t="s">
-        <v>256</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7621,13 +7091,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>14</v>
-      </c>
-      <c r="G243" t="s">
-        <v>28</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7647,13 +7115,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>14</v>
-      </c>
-      <c r="G244" t="s">
+        <v>13</v>
+      </c>
+      <c r="G244" t="s"/>
+      <c r="H244" t="s">
         <v>256</v>
-      </c>
-      <c r="H244" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7673,13 +7139,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>14</v>
-      </c>
-      <c r="G245" t="s">
-        <v>35</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7699,13 +7163,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>14</v>
-      </c>
-      <c r="G246" t="s">
-        <v>256</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7725,13 +7187,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>14</v>
-      </c>
-      <c r="G247" t="s">
-        <v>35</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7751,13 +7211,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>14</v>
-      </c>
-      <c r="G248" t="s">
-        <v>256</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7777,13 +7235,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>14</v>
-      </c>
-      <c r="G249" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7803,13 +7259,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>14</v>
-      </c>
-      <c r="G250" t="s">
-        <v>256</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7829,13 +7283,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>14</v>
-      </c>
-      <c r="G251" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -7855,13 +7307,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>14</v>
-      </c>
-      <c r="G252" t="s">
-        <v>256</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -7881,13 +7331,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>14</v>
-      </c>
-      <c r="G253" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7907,13 +7355,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>14</v>
-      </c>
-      <c r="G254" t="s">
-        <v>256</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7933,13 +7379,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>14</v>
-      </c>
-      <c r="G255" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7959,13 +7403,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>14</v>
-      </c>
-      <c r="G256" t="s">
-        <v>256</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7985,13 +7427,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>14</v>
-      </c>
-      <c r="G257" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8011,13 +7451,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>14</v>
-      </c>
-      <c r="G258" t="s">
-        <v>256</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8037,13 +7475,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>14</v>
-      </c>
-      <c r="G259" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8063,13 +7499,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>14</v>
-      </c>
-      <c r="G260" t="s">
-        <v>256</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8089,13 +7523,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>14</v>
-      </c>
-      <c r="G261" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8115,13 +7547,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>14</v>
-      </c>
-      <c r="G262" t="s">
-        <v>256</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8141,13 +7571,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>14</v>
-      </c>
-      <c r="G263" t="s">
-        <v>35</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8167,13 +7595,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>14</v>
-      </c>
-      <c r="G264" t="s">
-        <v>256</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8193,13 +7619,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>14</v>
-      </c>
-      <c r="G265" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8219,13 +7643,11 @@
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>14</v>
-      </c>
-      <c r="G266" t="s">
-        <v>256</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8245,13 +7667,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>14</v>
-      </c>
-      <c r="G267" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8271,13 +7691,11 @@
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>14</v>
-      </c>
-      <c r="G268" t="s">
-        <v>256</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8297,13 +7715,11 @@
         <v>10</v>
       </c>
       <c r="F269" t="s">
-        <v>14</v>
-      </c>
-      <c r="G269" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8323,13 +7739,11 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>14</v>
-      </c>
-      <c r="G270" t="s">
-        <v>256</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8349,13 +7763,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>14</v>
-      </c>
-      <c r="G271" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8375,13 +7787,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>14</v>
-      </c>
-      <c r="G272" t="s">
-        <v>256</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8401,13 +7811,11 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>14</v>
-      </c>
-      <c r="G273" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8427,13 +7835,11 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>14</v>
-      </c>
-      <c r="G274" t="s">
-        <v>256</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8453,13 +7859,11 @@
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>14</v>
-      </c>
-      <c r="G275" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8479,13 +7883,11 @@
         <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>14</v>
-      </c>
-      <c r="G276" t="s">
-        <v>256</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8507,11 +7909,9 @@
       <c r="F277" t="s">
         <v>11</v>
       </c>
-      <c r="G277" t="s">
-        <v>12</v>
-      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8531,13 +7931,11 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>14</v>
-      </c>
-      <c r="G278" t="s">
-        <v>256</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8557,13 +7955,11 @@
         <v>10</v>
       </c>
       <c r="F279" t="s">
-        <v>19</v>
-      </c>
-      <c r="G279" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8585,11 +7981,9 @@
       <c r="F280" t="s">
         <v>11</v>
       </c>
-      <c r="G280" t="s">
-        <v>12</v>
-      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8609,13 +8003,11 @@
         <v>10</v>
       </c>
       <c r="F281" t="s">
-        <v>19</v>
-      </c>
-      <c r="G281" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -8635,13 +8027,11 @@
         <v>10</v>
       </c>
       <c r="F282" t="s">
-        <v>14</v>
-      </c>
-      <c r="G282" t="s">
-        <v>31</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -8661,13 +8051,11 @@
         <v>10</v>
       </c>
       <c r="F283" t="s">
-        <v>19</v>
-      </c>
-      <c r="G283" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -8689,11 +8077,9 @@
       <c r="F284" t="s">
         <v>11</v>
       </c>
-      <c r="G284" t="s">
-        <v>12</v>
-      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -8713,13 +8099,11 @@
         <v>10</v>
       </c>
       <c r="F285" t="s">
-        <v>14</v>
-      </c>
-      <c r="G285" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -8741,11 +8125,9 @@
       <c r="F286" t="s">
         <v>11</v>
       </c>
-      <c r="G286" t="s">
-        <v>12</v>
-      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -8767,11 +8149,9 @@
       <c r="F287" t="s">
         <v>11</v>
       </c>
-      <c r="G287" t="s">
-        <v>12</v>
-      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
